--- a/Calendario2021/Actividades/MetodoBase10.xlsx
+++ b/Calendario2021/Actividades/MetodoBase10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2021\Actividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCA7541-45AD-4333-BC49-38A742F3AF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1158105-78D0-4CC1-A176-8271DCD472AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10370" yWindow="3060" windowWidth="14400" windowHeight="7360" xr2:uid="{C86220F5-DC96-4A0E-89BD-97CA94D23A92}"/>
+    <workbookView xWindow="46155" yWindow="8145" windowWidth="10560" windowHeight="9645" xr2:uid="{C86220F5-DC96-4A0E-89BD-97CA94D23A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -382,14 +382,14 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>2020</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -400,24 +400,24 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>A1*A2</f>
-        <v>64640</v>
+        <v>29152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3/256</f>
-        <v>252.5</v>
+        <v>113.875</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>A5*256</f>
-        <v>160</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
